--- a/Check.xlsx
+++ b/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="101">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -34,6 +34,9 @@
     <t>High</t>
   </si>
   <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>Удаление приложения.</t>
   </si>
   <si>
@@ -43,6 +46,201 @@
     <t>Навигация по приложению.</t>
   </si>
   <si>
+    <t>Отображение AppBar.</t>
+  </si>
+  <si>
+    <t>Отображение блока "Новости" на главной странице приложения.</t>
+  </si>
+  <si>
+    <t>Отображение списка из трех последних активных новостей в блоке "Новости" на главной странице.</t>
+  </si>
+  <si>
+    <t>Скрытие списка новостей на главной странице.</t>
+  </si>
+  <si>
+    <t>Раскрытие списка новостей на главной странице.</t>
+  </si>
+  <si>
+    <t>Раскрытие существующей новости на главной странице.</t>
+  </si>
+  <si>
+    <t>Скрытие существующей новости на главной странице.</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Новости" по кнопке "ВСЕ НОВОСТИ" с главной страницы.</t>
+  </si>
+  <si>
+    <t>Отображение элементов управления тулбара на странице "Новости".</t>
+  </si>
+  <si>
+    <t>Переход в "Панель управления" со страницы новости.</t>
+  </si>
+  <si>
+    <t>Сортировка новостей через нажатие иконки стрелок.</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей через фильтр по категории и дате.</t>
+  </si>
+  <si>
+    <t>Создание новой новости из "Панели управления"</t>
+  </si>
+  <si>
+    <t>Переход к странице с цитатами с помощью кнопки из AppBar</t>
+  </si>
+  <si>
+    <t>Отображение списка цитат на странице с цитатами.</t>
+  </si>
+  <si>
+    <t>Раскрытие цитаты на странице с цитатами.</t>
+  </si>
+  <si>
+    <t>Скрытие цитаты на странице с цитатами.</t>
+  </si>
+  <si>
+    <t>Переход на страницу с информацией о приложении по кнопке "О приложении" всплывающего меню с главной страницы</t>
+  </si>
+  <si>
+    <t>Возврат на предыдущую страницу с помощью кнопки возврата со страницы "О приложении".</t>
+  </si>
+  <si>
+    <t>Переход по ссылке относящейся к Политике конфиденциальности.</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Переход по ссылке относящейся к Пользовательскому соглашению.</t>
+  </si>
+  <si>
+    <t>Выход из аккаунта с помощью кнопки в AppBar</t>
+  </si>
+  <si>
+    <t>Просмотр новостей на странице "Новости"</t>
+  </si>
+  <si>
+    <t>Открытие существующей новости.</t>
+  </si>
+  <si>
+    <t>Закрытие существующей новости.</t>
+  </si>
+  <si>
+    <t>Отображение даты публикации новости.</t>
+  </si>
+  <si>
+    <t>Отстутствие новости в ленте с ещё не наступившей датой публикации.</t>
+  </si>
+  <si>
+    <t>Отсутствие новости в списке со статуом "неактивна".</t>
+  </si>
+  <si>
+    <t>Отсутствие удаленной новости в списке.</t>
+  </si>
+  <si>
+    <t>Сортировка новостей по кнопке.</t>
+  </si>
+  <si>
+    <t>Поиск новости по категории.</t>
+  </si>
+  <si>
+    <t>Поиск новости по фильтру даты.</t>
+  </si>
+  <si>
+    <t>Отображение заглушки при отсутствии новостей на странице.</t>
+  </si>
+  <si>
+    <t>Редактирование новостей на странице "Новости"</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с валидно заполненными значениями.</t>
+  </si>
+  <si>
+    <t>Добавление новости с незаполненным полем "Заголовок".</t>
+  </si>
+  <si>
+    <t>Добавление новости с незаполненным полем "Категория".</t>
+  </si>
+  <si>
+    <t>Добавление новости с незаполненным полем "Дата публикации".</t>
+  </si>
+  <si>
+    <t>Добавление новости с незаполненным полем "Время".</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>Добавление новости с незаполненным полем "Описание".</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с заполнением поля "Заголовок" большим количеством символов.</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с заполнением поля "Заголовок" используя спецсимволы.</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с заполнением поля "Описание" большим количеством символов.</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с заполнением поля "Описание" используя спецсимволы.</t>
+  </si>
+  <si>
+    <t>Отмена добавления новой новости.</t>
+  </si>
+  <si>
+    <t>Изменение категории существующей новости.</t>
+  </si>
+  <si>
+    <t>Изменение даты на прошедшую существующей новости.</t>
+  </si>
+  <si>
+    <t>Изменение даты на будущую существующей новости.</t>
+  </si>
+  <si>
+    <t>Удаление новости.</t>
+  </si>
+  <si>
+    <t>Авторизация/Вход в приложение</t>
+  </si>
+  <si>
+    <t>Авторизация с использованием валидного логина и пароля</t>
+  </si>
+  <si>
+    <t>Авторизация с использованием валидного логина и невалидного пароля.</t>
+  </si>
+  <si>
+    <t>Авторизация с использованием не валидного логина и валидного пароля.</t>
+  </si>
+  <si>
+    <t>Авторизация с незаполненными полями логина и пароля.</t>
+  </si>
+  <si>
+    <t>Проверка нескольких попыток ввода невалидных данных при авторизации.</t>
+  </si>
+  <si>
+    <t>Запрос на авторизацию при выходе из аккаунта.</t>
+  </si>
+  <si>
+    <t>Автоматическая авторизация при входе в приложение.</t>
+  </si>
+  <si>
+    <t>Работа приложения с плохой связью.</t>
+  </si>
+  <si>
+    <t>Запуск приложения при низкой скорости интернет соединения.</t>
+  </si>
+  <si>
+    <t>Запуск приложения при нестабильном интернет соединении.</t>
+  </si>
+  <si>
+    <t>Запуск приложения при отсутствии интернет соединения.</t>
+  </si>
+  <si>
+    <t>Навигация по приложению с горизонтальной ориентацией экрана</t>
+  </si>
+  <si>
+    <t>Проверка Splash Screen при холодном запуске приложения.</t>
+  </si>
+  <si>
     <t>Проверка отображения AppBar.</t>
   </si>
   <si>
@@ -52,199 +250,70 @@
     <t>Проверка отображения списка из трех последних активных новостей в блоке "Новости" на главной странице.</t>
   </si>
   <si>
-    <t>Скрытие списка новостей на главной странице.</t>
-  </si>
-  <si>
-    <t>Раскрытие списка новостей на главной странице.</t>
-  </si>
-  <si>
-    <t>Раскрытие существующей новости на главной странице.</t>
-  </si>
-  <si>
-    <t>Скрытие существующей новости на главной странице.</t>
-  </si>
-  <si>
-    <t>Переход на страницу "Новости" по кнопке "ВСЕ НОВОСТИ" с главной страницы.</t>
-  </si>
-  <si>
-    <t>Отображение элементов управления тулбара на странице "Новости".</t>
-  </si>
-  <si>
-    <t>Переход в "Панель управления" со страницы новости.</t>
-  </si>
-  <si>
-    <t>Сортировка новостей через нажатие иконки стрелок.</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей через фильтр по категории и дате.</t>
-  </si>
-  <si>
-    <t>Создание новой новости из "Панели управления"</t>
+    <t>Проверка отображения списка цитат на странице с цитатами.</t>
+  </si>
+  <si>
+    <t>Взврат на предыдущее страницу с помощью кнопки возврата со страницы с информацией о приложении.</t>
+  </si>
+  <si>
+    <t>Изменение ориентации экрана при запущенном приложении.</t>
+  </si>
+  <si>
+    <t>Выход из аккаунта с помощью кнопки в AppBar.</t>
+  </si>
+  <si>
+    <t>Навигация по приложению с измененным языком системы</t>
+  </si>
+  <si>
+    <t>Запуск приложения с авторизацией.</t>
+  </si>
+  <si>
+    <t>Проверка отображения заголовка главной страницы в AppBar.</t>
+  </si>
+  <si>
+    <t>Проверка отображения блока "News" на главной странице приложения.</t>
+  </si>
+  <si>
+    <t>Отображение элементов управления тулбара на странице "News".</t>
+  </si>
+  <si>
+    <t>Проверка отображения списка из трех последних активных новостей в блоке "News" на главной странице.</t>
+  </si>
+  <si>
+    <t>Переход на страницу "News" по кнопке "ALL NEWS" с главной страницы.</t>
   </si>
   <si>
     <t>Проверка перехода к странице с цитатами с помощью кнопки из AppBar</t>
   </si>
   <si>
-    <t>Проверка отображения списка цитат на странице с цитатами.</t>
-  </si>
-  <si>
-    <t>Раскрытие цитаты на странице с цитатами.</t>
-  </si>
-  <si>
-    <t>Скрытие цитаты на странице с цитатами.</t>
-  </si>
-  <si>
-    <t>Переход на страницу с информацией о приложении по кнопке "О приложении" всплывающего меню с главной страницы</t>
-  </si>
-  <si>
-    <t>Возврат на предыдущую страницу с помощью кнопки возврата со страницы "О приложении".</t>
-  </si>
-  <si>
-    <t>Переход по ссылке относящейся к Политике конфиденциальности.</t>
-  </si>
-  <si>
-    <t>Переход по ссылке относящейся к Пользовательскому соглашению.</t>
-  </si>
-  <si>
-    <t>Выход из аккаунта с помощью кнопки в AppBar</t>
-  </si>
-  <si>
-    <t>Просмотр новостей на странице "Новости"</t>
-  </si>
-  <si>
-    <t>Открытие существующей новости.</t>
-  </si>
-  <si>
-    <t>Закрытие существующей новости.</t>
+    <t>Переход на страницу с информацией о приложении по кнопке "About" всплывающего меню с главной страницы</t>
+  </si>
+  <si>
+    <t>Работа приложения в фоне</t>
+  </si>
+  <si>
+    <t>Вызов приложения из фона при разрешенных фоновых процессах на устройстве.</t>
+  </si>
+  <si>
+    <t>Вызов приложения из фона при запрещенных фоновых процессах на устройстве.</t>
+  </si>
+  <si>
+    <t>Навигация по приложению при Dark mode</t>
+  </si>
+  <si>
+    <t>Переход на главную страницу по кнопке "Главная" всплывающего меню со страницы "Новости"</t>
   </si>
   <si>
     <t>Проверка отображения даты публикации новости.</t>
   </si>
   <si>
-    <t>Проверка отстутствия новости в ленте с ещё не наступившей датой публикации.</t>
-  </si>
-  <si>
-    <t>Проверка отсутствия новости в списке со статуом "неактивна".</t>
-  </si>
-  <si>
-    <t>Проверка отсутствия удаленной новости в списке.</t>
-  </si>
-  <si>
-    <t>Сортировка новостей по кнопке.</t>
-  </si>
-  <si>
-    <t>Поиск новости по фильтру "Объявление".</t>
-  </si>
-  <si>
-    <t>Поиск новости по фильтру "День рождения".</t>
-  </si>
-  <si>
-    <t>Поиск новости по фильтру "Зарплата".</t>
-  </si>
-  <si>
-    <t>Поиск новости по фильтру "Профсоюз".</t>
-  </si>
-  <si>
-    <t>Поиск новости по фильтру "Праздник".</t>
-  </si>
-  <si>
-    <t>Поиск новости по фильтру "Массаж".</t>
-  </si>
-  <si>
-    <t>Поиск новости по фильтру "Благодарность".</t>
-  </si>
-  <si>
-    <t>Поиск новости по фильтру "Нужна помощь".</t>
-  </si>
-  <si>
-    <t>Поиск новости по фильтру даты.</t>
-  </si>
-  <si>
-    <t>Отображение заглушки при отсутствии новостей на странице.</t>
-  </si>
-  <si>
-    <t>Редактирование новостей на странице "Новости"</t>
-  </si>
-  <si>
-    <t>Добавление новой новости с валидно заполненными значениями.</t>
-  </si>
-  <si>
-    <t>Добавление новости с незаполненным полем "Заголовок".</t>
-  </si>
-  <si>
-    <t>Добавление новости с незаполненным полем "Категория".</t>
-  </si>
-  <si>
-    <t>Добавление новости с незаполненным полем "Дата публикации".</t>
-  </si>
-  <si>
-    <t>Добавление новости с незаполненным полем "Время".</t>
-  </si>
-  <si>
-    <t>Добавление новости с незаполненным полем "Описание".</t>
-  </si>
-  <si>
-    <t>Добавление новой новости с заполнением поля "Заголовок" большим количеством символов.</t>
-  </si>
-  <si>
-    <t>Добавление новой новости с заполнением поля "Заголовок" используя спецсимволы.</t>
-  </si>
-  <si>
-    <t>Добавление новой новости с заполнением поля "Описание" большим количеством символов.</t>
-  </si>
-  <si>
-    <t>Добавление новой новости с заполнением поля "Описание" используя спецсимволы.</t>
-  </si>
-  <si>
-    <t>Отмена добавления новой новости.</t>
-  </si>
-  <si>
-    <t>Изменение категории существующей новости.</t>
-  </si>
-  <si>
-    <t>Изменение даты на прошедшую существующей новости.</t>
-  </si>
-  <si>
-    <t>Изменение даты на будущую существующей новости.</t>
-  </si>
-  <si>
-    <t>Удаление новости.</t>
-  </si>
-  <si>
-    <t>Авторизация/Вход в приложение</t>
-  </si>
-  <si>
-    <t>Авторизация с использованием валидного логина и пароля</t>
-  </si>
-  <si>
-    <t>Авторизация с использованием валидного логина и невалидного пароля.</t>
-  </si>
-  <si>
-    <t>Авторизация с использованием не валидного логина и валидного пароля.</t>
-  </si>
-  <si>
-    <t>Авторизация с незаполненными полями логина и пароля.</t>
-  </si>
-  <si>
-    <t>Проверка нескольких попыток ввода невалидных данных при авторизации.</t>
-  </si>
-  <si>
-    <t>Проверка запроса на авторизацию при выходе из аккаунта.</t>
-  </si>
-  <si>
-    <t>Проверка автоматической авторизации при входе в приложение.</t>
-  </si>
-  <si>
-    <t>Работа приложения с плохой связью.</t>
-  </si>
-  <si>
-    <t>Запуск приложения при низкой скорости интернет соединения.</t>
-  </si>
-  <si>
-    <t>Запуск приложения при нестабильном интернет соединении.</t>
-  </si>
-  <si>
-    <t>Запуск приложения при отсутствии интернет соединения.</t>
+    <t>Поиск новости с использованием фильтра "активна".</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Поиск новости с использованием фильтра "неактивна".</t>
   </si>
 </sst>
 </file>
@@ -264,7 +333,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +362,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -335,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -358,6 +433,9 @@
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -366,6 +444,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,686 +692,1856 @@
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7"/>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="7"/>
       <c r="B24" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
       <c r="B30" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
-        <v>37</v>
+      <c r="B31" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="7"/>
       <c r="B33" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="7"/>
       <c r="B34" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="7"/>
       <c r="B35" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="7"/>
       <c r="B36" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="7"/>
+      <c r="A37" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B37" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="7"/>
       <c r="B38" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="7"/>
       <c r="B39" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="7"/>
       <c r="B40" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="7"/>
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="7"/>
       <c r="B43" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A44" s="7"/>
       <c r="B44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="6"/>
     </row>
     <row r="45">
       <c r="A45" s="7"/>
       <c r="B45" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="7"/>
       <c r="B46" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="7"/>
       <c r="B50" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="7"/>
+      <c r="A52" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B52" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="7"/>
       <c r="B55" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="7"/>
       <c r="B56" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="7"/>
       <c r="B57" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="7"/>
       <c r="B58" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>67</v>
+      <c r="A59" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="6"/>
+      <c r="D59" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="7"/>
-      <c r="B60" s="6" t="s">
-        <v>68</v>
+      <c r="B60" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="7"/>
-      <c r="B61" s="6" t="s">
-        <v>69</v>
+      <c r="B61" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="7"/>
+      <c r="A62" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="B62" s="6" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="7"/>
       <c r="B63" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="7"/>
       <c r="B64" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="7"/>
       <c r="B65" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>75</v>
+      <c r="A66" s="7"/>
+      <c r="B66" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="6"/>
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="7"/>
-      <c r="B67" s="10" t="s">
-        <v>76</v>
+      <c r="B67" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="7"/>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7"/>
+      <c r="B69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7"/>
+      <c r="B71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7"/>
+      <c r="B72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7"/>
+      <c r="B73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7"/>
+      <c r="B74" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7"/>
+      <c r="B75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7"/>
+      <c r="B76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7"/>
+      <c r="B77" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7"/>
+      <c r="B78" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7"/>
+      <c r="B79" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7"/>
+      <c r="B80" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7"/>
+      <c r="B82" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7"/>
+      <c r="B83" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7"/>
+      <c r="B84" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7"/>
+      <c r="B85" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7"/>
+      <c r="B86" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7"/>
+      <c r="B87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7"/>
+      <c r="B88" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7"/>
+      <c r="B89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7"/>
+      <c r="B90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7"/>
+      <c r="B91" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7"/>
+      <c r="B92" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7"/>
+      <c r="B93" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7"/>
+      <c r="B94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7"/>
+      <c r="B95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7"/>
+      <c r="B96" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7"/>
+      <c r="B97" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7"/>
+      <c r="B98" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7"/>
+      <c r="B100" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="7"/>
+      <c r="B102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="7"/>
+      <c r="B103" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="6"/>
+      <c r="C103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="7"/>
+      <c r="B104" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="7"/>
+      <c r="B105" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="7"/>
+      <c r="B106" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="7"/>
+      <c r="B107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="7"/>
+      <c r="B108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="7"/>
+      <c r="B109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="7"/>
+      <c r="B110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="7"/>
+      <c r="B111" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="7"/>
+      <c r="B112" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="7"/>
+      <c r="B113" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="7"/>
+      <c r="B114" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="7"/>
+      <c r="B115" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="12"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="7"/>
+      <c r="B116" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="7"/>
+      <c r="B117" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="7"/>
+      <c r="B118" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="7"/>
+      <c r="B119" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="7"/>
+      <c r="B120" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A27:A43"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A44:A58"/>
     <mergeCell ref="A5:A26"/>
+    <mergeCell ref="A37:A51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A80"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A81:A98"/>
+    <mergeCell ref="A101:A120"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
